--- a/pred_ohlcv/54_21/2019-10-10 VET ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-10 VET ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>3014086.078355655</v>
       </c>
       <c r="H2">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>3485013.717255655</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>3485013.717255655</v>
       </c>
       <c r="H4">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>3485013.717255655</v>
       </c>
       <c r="H5">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>3480169.020555655</v>
       </c>
       <c r="H6">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>3482426.356855655</v>
       </c>
       <c r="H7">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>3482426.356855655</v>
       </c>
       <c r="H8">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>3484239.419855655</v>
       </c>
       <c r="H9">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>3479898.788955655</v>
       </c>
       <c r="H10">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>3477854.441455655</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>3477854.441455655</v>
       </c>
       <c r="H12">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>3160803.869455655</v>
       </c>
       <c r="H13">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>3238803.869455655</v>
       </c>
       <c r="H14">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>3288071.666555655</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>3130472.336255655</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>3343472.336255655</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -886,7 +886,7 @@
         <v>3910439.114155654</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -990,7 +990,7 @@
         <v>4838362.164655654</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>4840546.686455654</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>4840630.483755654</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>4840630.483755654</v>
       </c>
       <c r="H26">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>4840720.609055654</v>
       </c>
       <c r="H27">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>4840720.609055654</v>
       </c>
       <c r="H28">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>4840720.609055654</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>4840600.609055654</v>
       </c>
       <c r="H30">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>4712255.889955654</v>
       </c>
       <c r="H31">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>4714280.548455654</v>
       </c>
       <c r="H32">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>5165945.854555653</v>
       </c>
       <c r="H33">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>5210390.298955654</v>
       </c>
       <c r="H34">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>5210390.298955654</v>
       </c>
       <c r="H35">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>5017390.298955654</v>
       </c>
       <c r="H36">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>5017556.521155654</v>
       </c>
       <c r="H37">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>5017556.521155654</v>
       </c>
       <c r="H38">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>5055152.395055654</v>
       </c>
       <c r="H39">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>5055152.395055654</v>
       </c>
       <c r="H40">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>5033483.006255654</v>
       </c>
       <c r="H41">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>5033483.006255654</v>
       </c>
       <c r="H42">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>5033483.006255654</v>
       </c>
       <c r="H43">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>5033493.006255654</v>
       </c>
       <c r="H44">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>5033493.006255654</v>
       </c>
       <c r="H45">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>5013493.006255654</v>
       </c>
       <c r="H46">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>5222674.675555654</v>
       </c>
       <c r="H47">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>5300006.323855653</v>
       </c>
       <c r="H48">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>5300006.323855653</v>
       </c>
       <c r="H49">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>5297571.088755653</v>
       </c>
       <c r="H50">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>4871710.724455653</v>
       </c>
       <c r="H51">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>4871710.724455653</v>
       </c>
       <c r="H52">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>4784505.998355653</v>
       </c>
       <c r="H53">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>4786511.497555654</v>
       </c>
       <c r="H54">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>4825405.880755654</v>
       </c>
       <c r="H55">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>4825405.880755654</v>
       </c>
       <c r="H56">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>4825405.880755654</v>
       </c>
       <c r="H57">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -2004,7 +2004,7 @@
         <v>4895375.731755653</v>
       </c>
       <c r="H62">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2030,7 +2030,7 @@
         <v>5872208.386955653</v>
       </c>
       <c r="H63">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2290,7 +2290,7 @@
         <v>6755922.697355654</v>
       </c>
       <c r="H73">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2316,7 +2316,7 @@
         <v>6755922.697355654</v>
       </c>
       <c r="H74">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2342,7 +2342,7 @@
         <v>6811782.599355654</v>
       </c>
       <c r="H75">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2368,7 +2368,7 @@
         <v>6811782.599355654</v>
       </c>
       <c r="H76">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2394,7 +2394,7 @@
         <v>6811782.599355654</v>
       </c>
       <c r="H77">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2420,7 +2420,7 @@
         <v>7024047.330455654</v>
       </c>
       <c r="H78">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2446,7 +2446,7 @@
         <v>7024047.330455654</v>
       </c>
       <c r="H79">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2472,7 +2472,7 @@
         <v>7015693.697355654</v>
       </c>
       <c r="H80">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>7011061.218155654</v>
       </c>
       <c r="H81">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>7018176.616855654</v>
       </c>
       <c r="H82">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>7018907.611055654</v>
       </c>
       <c r="H83">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>7018907.611055654</v>
       </c>
       <c r="H84">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>7012394.807855654</v>
       </c>
       <c r="H85">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>7012394.807855654</v>
       </c>
       <c r="H86">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>7012394.807855654</v>
       </c>
       <c r="H87">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>7086718.822255653</v>
       </c>
       <c r="H88">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2706,7 +2706,7 @@
         <v>7016718.822255653</v>
       </c>
       <c r="H89">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2732,7 +2732,7 @@
         <v>6499011.128255653</v>
       </c>
       <c r="H90">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2758,7 +2758,7 @@
         <v>6496962.777455653</v>
       </c>
       <c r="H91">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2784,7 +2784,7 @@
         <v>6496962.777455653</v>
       </c>
       <c r="H92">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2810,7 +2810,7 @@
         <v>6468662.172055653</v>
       </c>
       <c r="H93">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>6472758.873655654</v>
       </c>
       <c r="H94">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>6430272.190655653</v>
       </c>
       <c r="H95">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2914,7 +2914,7 @@
         <v>5980365.003955653</v>
       </c>
       <c r="H97">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>8358200.007055654</v>
       </c>
       <c r="H101">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3044,7 +3044,7 @@
         <v>8313453.216955654</v>
       </c>
       <c r="H102">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3070,7 +3070,7 @@
         <v>8313453.216955654</v>
       </c>
       <c r="H103">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -6944,7 +6944,7 @@
         <v>1108352.116445249</v>
       </c>
       <c r="H252">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -6970,7 +6970,7 @@
         <v>1108352.116445249</v>
       </c>
       <c r="H253">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -6996,7 +6996,7 @@
         <v>1128477.784445249</v>
       </c>
       <c r="H254">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/pred_ohlcv/54_21/2019-10-10 VET ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-10 VET ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>3014086.078355655</v>
       </c>
       <c r="H2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>3485013.717255655</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>3485013.717255655</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>3485013.717255655</v>
       </c>
       <c r="H5">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>3480169.020555655</v>
       </c>
       <c r="H6">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>3482426.356855655</v>
       </c>
       <c r="H7">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>3482426.356855655</v>
       </c>
       <c r="H8">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>3484239.419855655</v>
       </c>
       <c r="H9">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>3479898.788955655</v>
       </c>
       <c r="H10">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>3477854.441455655</v>
       </c>
       <c r="H11">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>3477854.441455655</v>
       </c>
       <c r="H12">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>3160803.869455655</v>
       </c>
       <c r="H13">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>3238803.869455655</v>
       </c>
       <c r="H14">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>3288071.666555655</v>
       </c>
       <c r="H15">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>3130472.336255655</v>
       </c>
       <c r="H16">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>3343472.336255655</v>
       </c>
       <c r="H17">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -886,7 +886,7 @@
         <v>3910439.114155654</v>
       </c>
       <c r="H19">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -990,7 +990,7 @@
         <v>4838362.164655654</v>
       </c>
       <c r="H23">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>4840546.686455654</v>
       </c>
       <c r="H24">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>4840630.483755654</v>
       </c>
       <c r="H25">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>4840630.483755654</v>
       </c>
       <c r="H26">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>4840720.609055654</v>
       </c>
       <c r="H27">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>4840720.609055654</v>
       </c>
       <c r="H28">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>4840720.609055654</v>
       </c>
       <c r="H29">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>4840600.609055654</v>
       </c>
       <c r="H30">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>4712255.889955654</v>
       </c>
       <c r="H31">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>4714280.548455654</v>
       </c>
       <c r="H32">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>5165945.854555653</v>
       </c>
       <c r="H33">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>5210390.298955654</v>
       </c>
       <c r="H34">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>5210390.298955654</v>
       </c>
       <c r="H35">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>5017390.298955654</v>
       </c>
       <c r="H36">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>5017556.521155654</v>
       </c>
       <c r="H37">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>5017556.521155654</v>
       </c>
       <c r="H38">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>5055152.395055654</v>
       </c>
       <c r="H39">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>5055152.395055654</v>
       </c>
       <c r="H40">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>5033483.006255654</v>
       </c>
       <c r="H41">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>5033483.006255654</v>
       </c>
       <c r="H42">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>5033483.006255654</v>
       </c>
       <c r="H43">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>5033493.006255654</v>
       </c>
       <c r="H44">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>5033493.006255654</v>
       </c>
       <c r="H45">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>5013493.006255654</v>
       </c>
       <c r="H46">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>5222674.675555654</v>
       </c>
       <c r="H47">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>5300006.323855653</v>
       </c>
       <c r="H48">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>5300006.323855653</v>
       </c>
       <c r="H49">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>5297571.088755653</v>
       </c>
       <c r="H50">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>4871710.724455653</v>
       </c>
       <c r="H51">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>4871710.724455653</v>
       </c>
       <c r="H52">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>4784505.998355653</v>
       </c>
       <c r="H53">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>4786511.497555654</v>
       </c>
       <c r="H54">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>4825405.880755654</v>
       </c>
       <c r="H55">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>4825405.880755654</v>
       </c>
       <c r="H56">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>4825405.880755654</v>
       </c>
       <c r="H57">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -2004,7 +2004,7 @@
         <v>4895375.731755653</v>
       </c>
       <c r="H62">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2030,7 +2030,7 @@
         <v>5872208.386955653</v>
       </c>
       <c r="H63">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>6863223.811755654</v>
       </c>
       <c r="H71">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>6883223.811755654</v>
       </c>
       <c r="H72">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2394,7 +2394,7 @@
         <v>6811782.599355654</v>
       </c>
       <c r="H77">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2420,7 +2420,7 @@
         <v>7024047.330455654</v>
       </c>
       <c r="H78">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2446,7 +2446,7 @@
         <v>7024047.330455654</v>
       </c>
       <c r="H79">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2472,7 +2472,7 @@
         <v>7015693.697355654</v>
       </c>
       <c r="H80">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>7011061.218155654</v>
       </c>
       <c r="H81">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>7018907.611055654</v>
       </c>
       <c r="H84">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>7012394.807855654</v>
       </c>
       <c r="H85">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>7012394.807855654</v>
       </c>
       <c r="H87">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2758,7 +2758,7 @@
         <v>6496962.777455653</v>
       </c>
       <c r="H91">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -6944,7 +6944,7 @@
         <v>1108352.116445249</v>
       </c>
       <c r="H252">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -6970,7 +6970,7 @@
         <v>1108352.116445249</v>
       </c>
       <c r="H253">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -6996,7 +6996,7 @@
         <v>1128477.784445249</v>
       </c>
       <c r="H254">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
